--- a/logs/file_size_2.xlsx
+++ b/logs/file_size_2.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhermann/Source/DASP/code/dasp_onnx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhermann/Source/DASP/code/dasp_onnx/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9CE81AE1-CA0E-174A-8136-ED36F51D0E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E880D3-21A7-0645-B3C0-7BCDD5D0E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2300" windowWidth="28240" windowHeight="17240"/>
+    <workbookView xWindow="0" yWindow="2120" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file_size_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>reader</t>
   </si>
@@ -95,12 +108,24 @@
   </si>
   <si>
     <t>in %</t>
+  </si>
+  <si>
+    <t>base_quant zu base</t>
+  </si>
+  <si>
+    <t>onnx zu base</t>
+  </si>
+  <si>
+    <t>roberta</t>
+  </si>
+  <si>
+    <t>bert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -639,6 +664,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67F77A93-4837-A747-BB09-43A1FC4857DA}" name="Tabelle1" displayName="Tabelle1" ref="A1:K24" totalsRowShown="0">
+  <autoFilter ref="A1:K24" xr:uid="{67F77A93-4837-A747-BB09-43A1FC4857DA}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{EB342181-5E61-8145-A3CA-0DA39C669BB8}" name="reader"/>
+    <tableColumn id="2" xr3:uid="{3061CBDD-8E25-9845-AA8D-6A2AD751BBFB}" name="adapter"/>
+    <tableColumn id="3" xr3:uid="{800D596F-1280-BC4D-913E-DB4D574797EB}" name="base"/>
+    <tableColumn id="4" xr3:uid="{948D6B73-D0AF-7A44-AADE-FC303D2B57DB}" name="base_quant"/>
+    <tableColumn id="5" xr3:uid="{7BF29D53-C6FA-EC4C-AFE6-E7389BA40C29}" name="onnx"/>
+    <tableColumn id="6" xr3:uid="{AB4382FD-F3F6-9F4F-84EA-F487DBB58B01}" name="onnx_quant"/>
+    <tableColumn id="7" xr3:uid="{F51F169F-BC93-6E42-A0C8-E565C9950E91}" name="zu base">
+      <calculatedColumnFormula>F2/C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{33454FE1-CD3B-3E4B-BAF6-5C79874C0CBF}" name="zu quant">
+      <calculatedColumnFormula>F2/D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{FFA763F1-EA4D-1745-BCBF-1D69398FB484}" name="zu onnx">
+      <calculatedColumnFormula>F2/E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8E0E2493-E952-3C4D-8134-AFD9CB745D3D}" name="base_quant zu base">
+      <calculatedColumnFormula>D2/C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{A89FB4EE-886C-7247-BDFD-9814E79A6D51}" name="onnx zu base">
+      <calculatedColumnFormula>E2/C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -937,23 +992,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,8 +1038,14 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1076,16 @@
         <f>F2/E2</f>
         <v>0.25165554664223055</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>D2/C2</f>
+        <v>0.91741663624278846</v>
+      </c>
+      <c r="K2">
+        <f>E2/C2</f>
+        <v>0.99539366592405076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1045,8 +1116,16 @@
         <f t="shared" ref="I3:I24" si="2">F3/E3</f>
         <v>0.25148390807542775</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J24" si="3">D3/C3</f>
+        <v>0.92734449980816591</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K24" si="4">E3/C3</f>
+        <v>0.99598083300800544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1077,8 +1156,16 @@
         <f t="shared" si="2"/>
         <v>0.2516449908745983</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0.91742299374723058</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>0.99538851325793543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1196,16 @@
         <f t="shared" si="2"/>
         <v>0.25147461004828792</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.92735015355982542</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.99597628353947398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1141,8 +1236,16 @@
         <f t="shared" si="2"/>
         <v>0.25163776838739638</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.92232528987903162</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0.99535884121190743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1173,8 +1276,16 @@
         <f t="shared" si="2"/>
         <v>0.25146750869356405</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.93170698081881587</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0.99595295875890344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1205,8 +1316,16 @@
         <f t="shared" si="2"/>
         <v>0.25164380438324763</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.92232528987903162</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.99536207548310551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1237,8 +1356,16 @@
         <f t="shared" si="2"/>
         <v>0.25147281297344287</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.93170698081881587</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0.99595580238902182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1269,8 +1396,16 @@
         <f t="shared" si="2"/>
         <v>0.2516585846315807</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.91741663624278846</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.99539529247592451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1301,8 +1436,16 @@
         <f t="shared" si="2"/>
         <v>0.25148656462499697</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.92734449980816591</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0.99598224420175119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1333,8 +1476,16 @@
         <f t="shared" si="2"/>
         <v>0.25164078639022674</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.92232528987903162</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0.99536045834750531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1365,8 +1516,16 @@
         <f t="shared" si="2"/>
         <v>0.25147016083728857</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.93170698081881587</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0.99595438057396268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1397,8 +1556,16 @@
         <f t="shared" si="2"/>
         <v>0.25163836715760846</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.91742299374723058</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.99538518804020615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1429,8 +1596,16 @@
         <f t="shared" si="2"/>
         <v>0.25146878555558932</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.92735015355982542</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0.99597335806943832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1461,8 +1636,16 @@
         <f t="shared" si="2"/>
         <v>0.25147024068695373</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.92735015355982542</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0.99597408943694576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1493,8 +1676,16 @@
         <f t="shared" si="2"/>
         <v>0.25164078639022674</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.92232528987903162</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0.99536045834750531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1525,8 +1716,16 @@
         <f t="shared" si="2"/>
         <v>0.25147016083728857</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.93170698081881587</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0.99595438057396268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1557,8 +1756,16 @@
         <f t="shared" si="2"/>
         <v>0.25164333608114714</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.91742299374723058</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0.99538768195350247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1589,8 +1796,16 @@
         <f t="shared" si="2"/>
         <v>0.2514731549233381</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.92735015355982542</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0.99597555217196465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1621,8 +1836,16 @@
         <f t="shared" si="2"/>
         <v>0.25163927739003827</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.92232528987903162</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.99535964977970748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1653,8 +1876,16 @@
         <f t="shared" si="2"/>
         <v>0.25146883476637288</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.93170698081881587</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0.99595366966643306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1685,8 +1916,16 @@
         <f t="shared" si="2"/>
         <v>0.25164380438324763</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.92232528987903162</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0.99536207548310551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1717,8 +1956,16 @@
         <f t="shared" si="2"/>
         <v>0.25147281297344287</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.93170698081881587</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0.99595580238902182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>20</v>
       </c>
@@ -1735,7 +1982,7 @@
         <v>0.25155506990032789</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>24</v>
       </c>
@@ -1752,8 +1999,73 @@
         <v>0.25155506990032789</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>480.03690210978129</v>
+      </c>
+      <c r="D37">
+        <v>446.20510864257807</v>
+      </c>
+      <c r="E37">
+        <v>478.10034012794432</v>
+      </c>
+      <c r="F37">
+        <v>120.22947176297458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>426.82593695322618</v>
+      </c>
+      <c r="D38">
+        <v>393.18164316813153</v>
+      </c>
+      <c r="E38">
+        <v>424.87467106183311</v>
+      </c>
+      <c r="F38">
+        <v>106.91046794255526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f>D37/C37</f>
+        <v>0.92952251520974505</v>
+      </c>
+      <c r="E40">
+        <f>E37/C37</f>
+        <v>0.99596580601756712</v>
+      </c>
+      <c r="F40">
+        <f>F37/C37</f>
+        <v>0.25045881105090312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f>D38/C38</f>
+        <v>0.92117561077648014</v>
+      </c>
+      <c r="E41">
+        <f>E38/C38</f>
+        <v>0.99542842708828427</v>
+      </c>
+      <c r="F41">
+        <f>F38/C38</f>
+        <v>0.25047790840853018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/logs/file_size_2.xlsx
+++ b/logs/file_size_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelhermann/Source/DASP/code/dasp_onnx/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E880D3-21A7-0645-B3C0-7BCDD5D0E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A38CE85-65CF-E444-9294-82A6060E224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2120" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>reader</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>bert</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>ONNX</t>
+  </si>
+  <si>
+    <t>Quantized ONNX</t>
+  </si>
+  <si>
+    <t>Quantized Base</t>
   </si>
 </sst>
 </file>
@@ -655,6 +667,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF91D150"/>
+      <color rgb="FFFBC003"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -666,9 +684,908 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-523C-8542-91D0-54033A97BC27}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBC003"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-523C-8542-91D0-54033A97BC27}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="91D150"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-523C-8542-91D0-54033A97BC27}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>file_size_2!$C$43:$F$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Quantized Base</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ONNX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quantized ONNX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>file_size_2!$C$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.117561077648119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.542842708828431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.047790840853018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-523C-8542-91D0-54033A97BC27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2088006944"/>
+        <c:axId val="2088169136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2088006944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088169136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2088169136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088006944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>536222</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>23989</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622F44C2-FD35-4FE9-20C7-3252F8858D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67F77A93-4837-A747-BB09-43A1FC4857DA}" name="Tabelle1" displayName="Tabelle1" ref="A1:K24" totalsRowShown="0">
   <autoFilter ref="A1:K24" xr:uid="{67F77A93-4837-A747-BB09-43A1FC4857DA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
+    <sortCondition ref="A1:A24"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{EB342181-5E61-8145-A3CA-0DA39C669BB8}" name="reader"/>
     <tableColumn id="2" xr3:uid="{3061CBDD-8E25-9845-AA8D-6A2AD751BBFB}" name="adapter"/>
@@ -993,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,64 +1982,64 @@
         <v>106.040250778198</v>
       </c>
       <c r="G2">
-        <f>F2/C2</f>
+        <f t="shared" ref="G2:G24" si="0">F2/C2</f>
         <v>0.25049633712233083</v>
       </c>
       <c r="H2">
-        <f>F2/D2</f>
+        <f t="shared" ref="H2:H24" si="1">F2/D2</f>
         <v>0.27304533973595674</v>
       </c>
       <c r="I2">
-        <f>F2/E2</f>
+        <f t="shared" ref="I2:I24" si="2">F2/E2</f>
         <v>0.25165554664223055</v>
       </c>
       <c r="J2">
-        <f>D2/C2</f>
+        <f t="shared" ref="J2:J24" si="3">D2/C2</f>
         <v>0.91741663624278846</v>
       </c>
       <c r="K2">
-        <f>E2/C2</f>
+        <f t="shared" ref="K2:K24" si="4">E2/C2</f>
         <v>0.99539366592405076</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>481.16434478759697</v>
+        <v>423.31763076782198</v>
       </c>
       <c r="D3">
-        <v>446.20510864257801</v>
+        <v>388.361328125</v>
       </c>
       <c r="E3">
-        <v>479.230464935302</v>
+        <v>421.36550712585398</v>
       </c>
       <c r="F3">
-        <v>120.518750190734</v>
+        <v>106.034519195556</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G24" si="0">F3/C3</f>
-        <v>0.25047315225307321</v>
+        <f t="shared" si="0"/>
+        <v>0.2504845333354731</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H24" si="1">F3/D3</f>
-        <v>0.27009719937400511</v>
+        <f t="shared" si="1"/>
+        <v>0.27303058135960223</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I24" si="2">F3/E3</f>
-        <v>0.25148390807542775</v>
+        <f t="shared" si="2"/>
+        <v>0.2516449908745983</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J24" si="3">D3/C3</f>
-        <v>0.92734449980816591</v>
+        <f t="shared" si="3"/>
+        <v>0.91742299374723058</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K24" si="4">E3/C3</f>
-        <v>0.99598083300800544</v>
+        <f t="shared" si="4"/>
+        <v>0.99538851325793543</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1130,79 +2047,79 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>423.31763076782198</v>
+        <v>421.06763458251902</v>
       </c>
       <c r="D4">
         <v>388.361328125</v>
       </c>
       <c r="E4">
-        <v>421.36550712585398</v>
+        <v>419.11339282989502</v>
       </c>
       <c r="F4">
-        <v>106.034519195556</v>
+        <v>105.464758872985</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0.2504845333354731</v>
+        <v>0.25046987754722921</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.27303058135960223</v>
+        <v>0.27156349315769041</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>0.2516449908745983</v>
+        <v>0.25163776838739638</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>0.91742299374723058</v>
+        <v>0.92232528987903162</v>
       </c>
       <c r="K4">
         <f t="shared" si="4"/>
-        <v>0.99538851325793543</v>
+        <v>0.99535884121190743</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>481.16141128539999</v>
+        <v>421.06763458251902</v>
       </c>
       <c r="D5">
-        <v>446.20510864257801</v>
+        <v>388.361328125</v>
       </c>
       <c r="E5">
-        <v>479.225354194641</v>
+        <v>419.114754676818</v>
       </c>
       <c r="F5">
-        <v>120.51300907135</v>
+        <v>105.467631340026</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.25046274752043224</v>
+        <v>0.25047669941337397</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.27008433282614897</v>
+        <v>0.27157088953532377</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>0.25147461004828792</v>
+        <v>0.25164380438324763</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>0.92735015355982542</v>
+        <v>0.92232528987903162</v>
       </c>
       <c r="K5">
         <f t="shared" si="4"/>
-        <v>0.99597628353947398</v>
+        <v>0.99536207548310551</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1210,79 +2127,79 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>421.06763458251902</v>
+        <v>423.32056427001902</v>
       </c>
       <c r="D6">
         <v>388.361328125</v>
       </c>
       <c r="E6">
-        <v>419.11339282989502</v>
+        <v>421.371296882629</v>
       </c>
       <c r="F6">
-        <v>105.464758872985</v>
+        <v>106.041704177856</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.25046987754722921</v>
+        <v>0.25049977045342947</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.27156349315769041</v>
+        <v>0.27304908212623291</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>0.25163776838739638</v>
+        <v>0.2516585846315807</v>
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>0.92232528987903162</v>
+        <v>0.91741663624278846</v>
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>0.99535884121190743</v>
+        <v>0.99539529247592451</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>478.91141510009697</v>
+        <v>421.06763458251902</v>
       </c>
       <c r="D7">
-        <v>446.20510864257801</v>
+        <v>388.361328125</v>
       </c>
       <c r="E7">
-        <v>476.97324085235499</v>
+        <v>419.11407375335602</v>
       </c>
       <c r="F7">
-        <v>119.94327259063699</v>
+        <v>105.46619510650601</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.25044980931508537</v>
+        <v>0.25047328848030281</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.26880748397417992</v>
+        <v>0.27156719134650842</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>0.25146750869356405</v>
+        <v>0.25164078639022674</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>0.93170698081881587</v>
+        <v>0.92232528987903162</v>
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>0.99595295875890344</v>
+        <v>0.99536045834750531</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1290,79 +2207,79 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>421.06763458251902</v>
+        <v>423.31763076782198</v>
       </c>
       <c r="D8">
         <v>388.361328125</v>
       </c>
       <c r="E8">
-        <v>419.114754676818</v>
+        <v>421.36409950256302</v>
       </c>
       <c r="F8">
-        <v>105.467631340026</v>
+        <v>106.031373977661</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.25047669941337397</v>
+        <v>0.25047710341130647</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.27157088953532377</v>
+        <v>0.27302248266988416</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>0.25164380438324763</v>
+        <v>0.25163836715760846</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>0.92232528987903162</v>
+        <v>0.91742299374723058</v>
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>0.99536207548310551</v>
+        <v>0.99538518804020615</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>478.91141510009697</v>
+        <v>421.06763458251902</v>
       </c>
       <c r="D9">
-        <v>446.20510864257801</v>
+        <v>388.361328125</v>
       </c>
       <c r="E9">
-        <v>476.97460269927899</v>
+        <v>419.11407375335602</v>
       </c>
       <c r="F9">
-        <v>119.946145057678</v>
+        <v>105.46619510650601</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.25045580722398969</v>
+        <v>0.25047328848030281</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.26881392152270944</v>
+        <v>0.27156719134650842</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>0.25147281297344287</v>
+        <v>0.25164078639022674</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>0.93170698081881587</v>
+        <v>0.92232528987903162</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>0.99595580238902182</v>
+        <v>0.99536045834750531</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1370,79 +2287,79 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>423.32056427001902</v>
+        <v>423.31763076782198</v>
       </c>
       <c r="D10">
         <v>388.361328125</v>
       </c>
       <c r="E10">
-        <v>421.371296882629</v>
+        <v>421.365155220031</v>
       </c>
       <c r="F10">
-        <v>106.041704177856</v>
+        <v>106.033733367919</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.25049977045342947</v>
+        <v>0.25048267698085924</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.27304908212623291</v>
+        <v>0.27302855791498998</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>0.2516585846315807</v>
+        <v>0.25164333608114714</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.91741663624278846</v>
+        <v>0.91742299374723058</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>0.99539529247592451</v>
+        <v>0.99538768195350247</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>481.16434478759697</v>
+        <v>421.06763458251902</v>
       </c>
       <c r="D11">
-        <v>446.20510864257801</v>
+        <v>388.361328125</v>
       </c>
       <c r="E11">
-        <v>479.23114395141602</v>
+        <v>419.11373329162598</v>
       </c>
       <c r="F11">
-        <v>120.52019405364901</v>
+        <v>105.46547698974599</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.25047615302179321</v>
+        <v>0.25047158301376715</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.27010043524667227</v>
+        <v>0.27156534225210066</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>0.25148656462499697</v>
+        <v>0.25163927739003827</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>0.92734449980816591</v>
+        <v>0.92232528987903162</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>0.99598224420175119</v>
+        <v>0.99535964977970748</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1450,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>421.06763458251902</v>
@@ -1459,22 +2376,22 @@
         <v>388.361328125</v>
       </c>
       <c r="E12">
-        <v>419.11407375335602</v>
+        <v>419.114754676818</v>
       </c>
       <c r="F12">
-        <v>105.46619510650601</v>
+        <v>105.467631340026</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.25047328848030281</v>
+        <v>0.25047669941337397</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>0.27156719134650842</v>
+        <v>0.27157088953532377</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.25164078639022674</v>
+        <v>0.25164380438324763</v>
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
@@ -1482,7 +2399,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>0.99536045834750531</v>
+        <v>0.99536207548310551</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1490,79 +2407,79 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>478.91141510009697</v>
+        <v>481.16434478759697</v>
       </c>
       <c r="D13">
         <v>446.20510864257801</v>
       </c>
       <c r="E13">
-        <v>476.97392177581702</v>
+        <v>479.230464935302</v>
       </c>
       <c r="F13">
-        <v>119.944708824157</v>
+        <v>120.518750190734</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0.25045280826953653</v>
+        <v>0.25047315225307321</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>0.26881070274844354</v>
+        <v>0.27009719937400511</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>0.25147016083728857</v>
+        <v>0.25148390807542775</v>
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>0.93170698081881587</v>
+        <v>0.92734449980816591</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>0.99595438057396268</v>
+        <v>0.99598083300800544</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>423.31763076782198</v>
+        <v>481.16141128539999</v>
       </c>
       <c r="D14">
-        <v>388.361328125</v>
+        <v>446.20510864257801</v>
       </c>
       <c r="E14">
-        <v>421.36409950256302</v>
+        <v>479.225354194641</v>
       </c>
       <c r="F14">
-        <v>106.031373977661</v>
+        <v>120.51300907135</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.25047710341130647</v>
+        <v>0.25046274752043224</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>0.27302248266988416</v>
+        <v>0.27008433282614897</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0.25163836715760846</v>
+        <v>0.25147461004828792</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>0.91742299374723058</v>
+        <v>0.92735015355982542</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>0.99538518804020615</v>
+        <v>0.99597628353947398</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1570,39 +2487,39 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>481.16141128539999</v>
+        <v>478.91141510009697</v>
       </c>
       <c r="D15">
         <v>446.20510864257801</v>
       </c>
       <c r="E15">
-        <v>479.22394657134998</v>
+        <v>476.97324085235499</v>
       </c>
       <c r="F15">
-        <v>120.50986385345399</v>
+        <v>119.94327259063699</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.25045621079944375</v>
+        <v>0.25044980931508537</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0.27007728400973002</v>
+        <v>0.26880748397417992</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>0.25146878555558932</v>
+        <v>0.25146750869356405</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>0.92735015355982542</v>
+        <v>0.93170698081881587</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>0.99597335806943832</v>
+        <v>0.99595295875890344</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1610,79 +2527,79 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>481.16141128539999</v>
+        <v>478.91141510009697</v>
       </c>
       <c r="D16">
         <v>446.20510864257801</v>
       </c>
       <c r="E16">
-        <v>479.224298477172</v>
+        <v>476.97460269927899</v>
       </c>
       <c r="F16">
-        <v>120.510649681091</v>
+        <v>119.946145057678</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0.25045784398867832</v>
+        <v>0.25045580722398969</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0.27007904514518499</v>
+        <v>0.26881392152270944</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>0.25147024068695373</v>
+        <v>0.25147281297344287</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>0.92735015355982542</v>
+        <v>0.93170698081881587</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>0.99597408943694576</v>
+        <v>0.99595580238902182</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>421.06763458251902</v>
+        <v>481.16434478759697</v>
       </c>
       <c r="D17">
-        <v>388.361328125</v>
+        <v>446.20510864257801</v>
       </c>
       <c r="E17">
-        <v>419.11407375335602</v>
+        <v>479.23114395141602</v>
       </c>
       <c r="F17">
-        <v>105.46619510650601</v>
+        <v>120.52019405364901</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0.25047328848030281</v>
+        <v>0.25047615302179321</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>0.27156719134650842</v>
+        <v>0.27010043524667227</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>0.25164078639022674</v>
+        <v>0.25148656462499697</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>0.92232528987903162</v>
+        <v>0.92734449980816591</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>0.99536045834750531</v>
+        <v>0.99598224420175119</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1690,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>478.91141510009697</v>
@@ -1727,42 +2644,42 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>423.31763076782198</v>
+        <v>481.16141128539999</v>
       </c>
       <c r="D19">
-        <v>388.361328125</v>
+        <v>446.20510864257801</v>
       </c>
       <c r="E19">
-        <v>421.365155220031</v>
+        <v>479.22394657134998</v>
       </c>
       <c r="F19">
-        <v>106.033733367919</v>
+        <v>120.50986385345399</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0.25048267698085924</v>
+        <v>0.25045621079944375</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>0.27302855791498998</v>
+        <v>0.27007728400973002</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>0.25164333608114714</v>
+        <v>0.25146878555558932</v>
       </c>
       <c r="J19">
         <f t="shared" si="3"/>
-        <v>0.91742299374723058</v>
+        <v>0.92735015355982542</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>0.99538768195350247</v>
+        <v>0.99597335806943832</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1770,7 +2687,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>481.16141128539999</v>
@@ -1779,22 +2696,22 @@
         <v>446.20510864257801</v>
       </c>
       <c r="E20">
-        <v>479.22500228881802</v>
+        <v>479.224298477172</v>
       </c>
       <c r="F20">
-        <v>120.512223243713</v>
+        <v>120.510649681091</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0.25046111433119767</v>
+        <v>0.25045784398867832</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>0.27008257169069405</v>
+        <v>0.27007904514518499</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>0.2514731549233381</v>
+        <v>0.25147024068695373</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
@@ -1802,47 +2719,47 @@
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>0.99597555217196465</v>
+        <v>0.99597408943694576</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>421.06763458251902</v>
+        <v>478.91141510009697</v>
       </c>
       <c r="D21">
-        <v>388.361328125</v>
+        <v>446.20510864257801</v>
       </c>
       <c r="E21">
-        <v>419.11373329162598</v>
+        <v>476.97392177581702</v>
       </c>
       <c r="F21">
-        <v>105.46547698974599</v>
+        <v>119.944708824157</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0.25047158301376715</v>
+        <v>0.25045280826953653</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>0.27156534225210066</v>
+        <v>0.26881070274844354</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>0.25163927739003827</v>
+        <v>0.25147016083728857</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>0.92232528987903162</v>
+        <v>0.93170698081881587</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>0.99535964977970748</v>
+        <v>0.99595438057396268</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1850,79 +2767,79 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>478.91141510009697</v>
+        <v>481.16141128539999</v>
       </c>
       <c r="D22">
         <v>446.20510864257801</v>
       </c>
       <c r="E22">
-        <v>476.973581314086</v>
+        <v>479.22500228881802</v>
       </c>
       <c r="F22">
-        <v>119.94399070739701</v>
+        <v>120.512223243713</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0.25045130879231098</v>
+        <v>0.25046111433119767</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>0.26880909336131176</v>
+        <v>0.27008257169069405</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>0.25146883476637288</v>
+        <v>0.2514731549233381</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>0.93170698081881587</v>
+        <v>0.92735015355982542</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>0.99595366966643306</v>
+        <v>0.99597555217196465</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>421.06763458251902</v>
+        <v>478.91141510009697</v>
       </c>
       <c r="D23">
-        <v>388.361328125</v>
+        <v>446.20510864257801</v>
       </c>
       <c r="E23">
-        <v>419.114754676818</v>
+        <v>476.973581314086</v>
       </c>
       <c r="F23">
-        <v>105.467631340026</v>
+        <v>119.94399070739701</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.25047669941337397</v>
+        <v>0.25045130879231098</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.27157088953532377</v>
+        <v>0.26880909336131176</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0.25164380438324763</v>
+        <v>0.25146883476637288</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>0.92232528987903162</v>
+        <v>0.93170698081881587</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>0.99536207548310551</v>
+        <v>0.99595366966643306</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1975,7 +2892,7 @@
       </c>
       <c r="H29">
         <f>AVERAGE(H2:H24)</f>
-        <v>0.27078120587610238</v>
+        <v>0.27078120587610244</v>
       </c>
       <c r="I29">
         <f>AVERAGE(I2:I24)</f>
@@ -1992,7 +2909,7 @@
       </c>
       <c r="H31" s="1">
         <f>H29</f>
-        <v>0.27078120587610238</v>
+        <v>0.27078120587610244</v>
       </c>
       <c r="I31" s="1">
         <f>I29</f>
@@ -2007,7 +2924,7 @@
         <v>480.03690210978129</v>
       </c>
       <c r="D37">
-        <v>446.20510864257807</v>
+        <v>446.20510864257801</v>
       </c>
       <c r="E37">
         <v>478.10034012794432</v>
@@ -2024,7 +2941,7 @@
         <v>426.82593695322618</v>
       </c>
       <c r="D38">
-        <v>393.18164316813153</v>
+        <v>393.18164316813198</v>
       </c>
       <c r="E38">
         <v>424.87467106183311</v>
@@ -2034,9 +2951,12 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40">
         <f>D37/C37</f>
-        <v>0.92952251520974505</v>
+        <v>0.92952251520974494</v>
       </c>
       <c r="E40">
         <f>E37/C37</f>
@@ -2048,9 +2968,12 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41">
         <f>D38/C38</f>
-        <v>0.92117561077648014</v>
+        <v>0.92117561077648125</v>
       </c>
       <c r="E41">
         <f>E38/C38</f>
@@ -2061,11 +2984,44 @@
         <v>0.25047790840853018</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f>C41*100</f>
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:F44" si="5">D41*100</f>
+        <v>92.117561077648119</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>99.542842708828431</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>25.047790840853018</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>